--- a/nop-record/src/main/resources/_vfs/nop/record/imp/template.record-file.xlsx
+++ b/nop-record/src/main/resources/_vfs/nop/record/imp/template.record-file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-record\src\main\resources\_vfs\nop\record\imp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D44FF1-30FF-491F-98FD-7E0935A5F773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E94F1AA-9A74-4055-B1EE-BF30C1F29024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="5" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
   <si>
     <t>字段列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,6 +256,14 @@
   </si>
   <si>
     <t>basePackageName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -559,6 +567,42 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -570,42 +614,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1522,7 +1530,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F15" sqref="F15:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1542,99 +1550,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="47"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="38"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="47"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="47"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="38"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="47"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="38"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1644,7 +1652,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>2</v>
@@ -1775,30 +1783,30 @@
       <c r="O12" s="28"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="42"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="42"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="18"/>
       <c r="E15" s="2" t="s">
         <v>47</v>
@@ -1811,38 +1819,32 @@
         <v>48</v>
       </c>
       <c r="K15" s="44"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="47"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="38"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="47"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:O4"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D1:O1"/>
-    <mergeCell ref="D2:O2"/>
-    <mergeCell ref="D3:O3"/>
     <mergeCell ref="D16:O16"/>
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="A12:O12"/>
@@ -1853,6 +1855,12 @@
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="L15:O15"/>
     <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:O4"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D1:O1"/>
+    <mergeCell ref="D2:O2"/>
+    <mergeCell ref="D3:O3"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A1:C1"/>
   </mergeCells>
@@ -1866,7 +1874,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="A6" sqref="A6:Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1889,16 +1897,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="48"/>
       <c r="I1" s="2"/>
       <c r="J1" s="27"/>
       <c r="K1" s="29"/>
@@ -1910,16 +1918,16 @@
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="36"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="48"/>
       <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1933,16 +1941,16 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="36"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="48"/>
       <c r="I3" s="3"/>
       <c r="J3" s="27"/>
       <c r="K3" s="29"/>
@@ -1954,44 +1962,44 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="36"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="48"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="36"/>
+      <c r="A5" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="48"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="1"/>
     </row>
@@ -2015,25 +2023,25 @@
       <c r="Q6" s="28"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">

--- a/nop-record/src/main/resources/_vfs/nop/record/imp/template.record-file.xlsx
+++ b/nop-record/src/main/resources/_vfs/nop/record/imp/template.record-file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-record\src\main\resources\_vfs\nop\record\imp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E94F1AA-9A74-4055-B1EE-BF30C1F29024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7890DCE-56BF-4250-A7E2-9C799C84326C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="5" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="4" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
   <si>
     <t>字段列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,10 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,10 +141,6 @@
   </si>
   <si>
     <t>缺省值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -264,6 +256,26 @@
   </si>
   <si>
     <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码器的可选值参见codec.dict.yaml字典定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否二进制文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺省字符集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UTF-8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,7 +479,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -525,55 +537,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -582,6 +546,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -597,10 +606,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -945,7 +966,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>4</v>
@@ -954,7 +975,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1032,65 +1053,65 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1130,16 +1151,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>5</v>
@@ -1148,7 +1169,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1368,76 +1389,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="22"/>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="25"/>
+      <c r="B1" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="12" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="11"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="25" t="s">
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
+      <c r="B3" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="12" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
+      <c r="B4" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="25" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="28"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="30" t="s">
+      <c r="C5" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="14" t="s">
+      <c r="D5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>44</v>
-      </c>
       <c r="F5" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="16"/>
@@ -1446,7 +1467,7 @@
       <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="16"/>
@@ -1455,7 +1476,7 @@
       <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="16"/>
@@ -1464,7 +1485,7 @@
       <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="16"/>
@@ -1473,7 +1494,7 @@
       <c r="G9" s="16"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="16"/>
@@ -1482,7 +1503,7 @@
       <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="16"/>
@@ -1491,7 +1512,7 @@
       <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="13"/>
       <c r="C12" s="17"/>
       <c r="D12" s="16"/>
@@ -1500,13 +1521,13 @@
       <c r="G12" s="16"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1527,10 +1548,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA0482BA-3F93-442F-8AFE-D86C98EA24A7}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1539,7 +1560,7 @@
     <col min="2" max="2" width="4.5546875" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
     <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
     <col min="7" max="7" width="6.21875" customWidth="1"/>
     <col min="8" max="8" width="4.77734375" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
@@ -1550,170 +1571,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="30"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="10"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="37"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="37"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="38"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="38"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="38"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="38"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="37"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="47"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="37"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="41"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="G8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" s="2" t="s">
+      <c r="L8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>1</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="1"/>
-    </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>2</v>
-      </c>
+      <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
@@ -1730,9 +1753,7 @@
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>3</v>
-      </c>
+      <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
@@ -1766,103 +1787,122 @@
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="28"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="31"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="41"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="43"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="42"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="33" t="s">
+      <c r="F16" s="30"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="2" t="s">
+      <c r="K16" s="45"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="37"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
+      <c r="B17" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="K15" s="44"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="38"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="38"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="D16:O16"/>
-    <mergeCell ref="A6:O6"/>
-    <mergeCell ref="A12:O12"/>
-    <mergeCell ref="A14:O14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="B16:C16"/>
+  <mergeCells count="20">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:O5"/>
+    <mergeCell ref="A7:O7"/>
+    <mergeCell ref="A13:O13"/>
+    <mergeCell ref="A15:O15"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:O4"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D1:O1"/>
     <mergeCell ref="D2:O2"/>
     <mergeCell ref="D3:O3"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:O17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1871,413 +1911,294 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000F6B3B-AB4F-4868-B1E5-A6FB88E99700}">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:Q6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="4.77734375" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="10" max="10" width="6.21875" customWidth="1"/>
-    <col min="11" max="11" width="4.77734375" customWidth="1"/>
-    <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="6.109375" customWidth="1"/>
-    <col min="14" max="14" width="8.21875" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" customWidth="1"/>
-    <col min="16" max="16" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" customWidth="1"/>
+    <col min="3" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" customWidth="1"/>
+    <col min="9" max="9" width="6.21875" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="2" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="27"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="28"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="31"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>1</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="5"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K9" s="6"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="5"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K10" s="6"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>3</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="5"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="5"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K11" s="6"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>4</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="5"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="5"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>5</v>
-      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="5"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>6</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="5"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="5"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="28"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="31"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A7:Q7"/>
-    <mergeCell ref="A16:Q16"/>
-    <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:O5"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:O4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-record/src/main/resources/_vfs/nop/record/imp/template.record-file.xlsx
+++ b/nop-record/src/main/resources/_vfs/nop/record/imp/template.record-file.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-record\src\main\resources\_vfs\nop\record\imp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7890DCE-56BF-4250-A7E2-9C799C84326C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5D67BB-7490-4F49-B966-4D5E3A0378E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="4" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="4" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
     <sheet name="配置" sheetId="3" r:id="rId2"/>
-    <sheet name="域定义" sheetId="15" r:id="rId3"/>
-    <sheet name="字典定义" sheetId="22" r:id="rId4"/>
-    <sheet name="文件结构" sheetId="23" r:id="rId5"/>
-    <sheet name="RecordObject" sheetId="21" r:id="rId6"/>
+    <sheet name="字典定义" sheetId="22" r:id="rId3"/>
+    <sheet name="文件结构" sheetId="23" r:id="rId4"/>
+    <sheet name="RecordObject" sheetId="21" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
   <si>
     <t>字段列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -100,19 +95,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>标准域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -207,10 +190,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>变量名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>汇总函数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -219,10 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>计算表达式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参数列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -276,6 +251,42 @@
   </si>
   <si>
     <t>UTF-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子类型选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子类型映射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否左填充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填充字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段位图索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段位图编码器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,7 +490,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -501,12 +512,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -546,6 +551,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -594,34 +602,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -635,6 +637,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -957,16 +962,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="3" width="19.5546875" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="2" max="3" width="19.53125" customWidth="1"/>
+    <col min="4" max="4" width="16.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>4</v>
@@ -975,10 +980,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -986,7 +991,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -994,37 +999,37 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1044,87 +1049,87 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.109375" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" customWidth="1"/>
-    <col min="3" max="3" width="39.21875" customWidth="1"/>
+    <col min="1" max="1" width="22.1328125" customWidth="1"/>
+    <col min="2" max="2" width="27.86328125" customWidth="1"/>
+    <col min="3" max="3" width="39.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1136,246 +1141,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6B1C0B-16AE-459C-999C-D9C9CBAA7576}">
-  <dimension ref="A1:G19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580B8EA3-49A5-40B5-854E-E1175EA60D43}">
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -1383,151 +1148,151 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="1" max="1" width="6.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="25"/>
-      <c r="B1" s="28" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="24"/>
+      <c r="B1" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="25"/>
+      <c r="B2" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="25"/>
+      <c r="B3" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="12" t="s">
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="30"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="25"/>
+      <c r="B4" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="11"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="28" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="25"/>
+      <c r="B5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="28" t="s">
+      <c r="D5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="31"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="35"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="15" t="s">
+      <c r="F5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="25"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="25"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="25"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="25"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="25"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="25"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="25"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="26"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1546,659 +1311,742 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA0482BA-3F93-442F-8AFE-D86C98EA24A7}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="7" max="7" width="6.21875" customWidth="1"/>
-    <col min="8" max="8" width="4.77734375" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="6.109375" customWidth="1"/>
-    <col min="11" max="11" width="8.21875" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.1328125" customWidth="1"/>
+    <col min="4" max="4" width="14.53125" customWidth="1"/>
+    <col min="6" max="6" width="6.19921875" customWidth="1"/>
+    <col min="7" max="7" width="4.796875" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="6.1328125" customWidth="1"/>
+    <col min="10" max="10" width="8.19921875" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="10"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A1" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="29"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="8"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
       <c r="N2" s="36"/>
-      <c r="O2" s="37"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A3" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
       <c r="N3" s="36"/>
-      <c r="O3" s="37"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A4" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
       <c r="N4" s="36"/>
-      <c r="O4" s="37"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A5" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
       <c r="N5" s="36"/>
-      <c r="O5" s="37"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="41"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A7" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="42"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="N8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A9" s="5">
+        <v>1</v>
+      </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="K9" s="6"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M9" s="5"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="6"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="K10" s="6"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M10" s="5"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="6"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M11" s="5"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="6"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="K12" s="6"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="31"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="41"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="K16" s="45"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="36"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A13" s="29"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="30"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A15" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="42"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A16" s="24">
+        <v>1</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="44"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
       <c r="N16" s="36"/>
-      <c r="O16" s="37"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A17" s="26"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
       <c r="N17" s="36"/>
-      <c r="O17" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:O5"/>
-    <mergeCell ref="A7:O7"/>
-    <mergeCell ref="A13:O13"/>
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:O4"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:O2"/>
-    <mergeCell ref="D3:O3"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="B16:C16"/>
+  <mergeCells count="18">
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="C17:N17"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:O17"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:N4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="C3:N3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:N5"/>
+    <mergeCell ref="A7:N7"/>
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="A15:N15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000F6B3B-AB4F-4868-B1E5-A6FB88E99700}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" customWidth="1"/>
-    <col min="3" max="5" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="4.77734375" customWidth="1"/>
-    <col min="9" max="9" width="6.21875" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.86328125" customWidth="1"/>
+    <col min="4" max="4" width="8.59765625" customWidth="1"/>
+    <col min="5" max="5" width="11.1328125" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.46484375" customWidth="1"/>
+    <col min="8" max="8" width="7.06640625" customWidth="1"/>
+    <col min="9" max="9" width="10.46484375" customWidth="1"/>
+    <col min="10" max="10" width="4.796875" customWidth="1"/>
+    <col min="12" max="12" width="12.53125" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
+    <col min="14" max="15" width="15.73046875" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" customWidth="1"/>
+    <col min="17" max="17" width="11.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A1" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="2" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A3" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A4" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A5" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A6" s="29"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="31"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="30"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A7" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="J8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>1</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="5"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
+      <c r="J9" s="5"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="5"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>2</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="5"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="J10" s="5"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="5"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>3</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="5"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="J11" s="5"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="5"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>4</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="5"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="J12" s="5"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="5"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="5"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="J13" s="5"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="5"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A14" s="29"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
       <c r="L14" s="31"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="30"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="C5:P5"/>
+    <mergeCell ref="A6:R6"/>
+    <mergeCell ref="A7:R7"/>
+    <mergeCell ref="A14:R14"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="L3:P3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C4:P4"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="L1:P1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="L2:P2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-record/src/main/resources/_vfs/nop/record/imp/template.record-file.xlsx
+++ b/nop-record/src/main/resources/_vfs/nop/record/imp/template.record-file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-record\src\main\resources\_vfs\nop\record\imp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5D67BB-7490-4F49-B966-4D5E3A0378E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD074FFC-5E10-4E7F-B8C7-1878E396C9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="4" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="23040" windowHeight="11976" activeTab="3" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
   <si>
     <t>字段列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -287,6 +287,14 @@
   </si>
   <si>
     <t>字段位图编码器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算表达式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,6 +604,15 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -608,9 +625,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -618,12 +632,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -962,14 +970,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="3" width="19.53125" customWidth="1"/>
-    <col min="4" max="4" width="16.46484375" customWidth="1"/>
+    <col min="2" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -983,7 +991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -991,7 +999,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -999,37 +1007,37 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1049,14 +1057,14 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.1328125" customWidth="1"/>
-    <col min="2" max="2" width="27.86328125" customWidth="1"/>
-    <col min="3" max="3" width="39.19921875" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+    <col min="3" max="3" width="39.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
@@ -1067,7 +1075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1076,14 +1084,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1092,7 +1100,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1101,7 +1109,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -1110,7 +1118,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1119,17 +1127,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1148,12 +1156,12 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1328125" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="24"/>
       <c r="B1" s="27" t="s">
         <v>30</v>
@@ -1166,7 +1174,7 @@
       </c>
       <c r="G1" s="9"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
       <c r="B2" s="27" t="s">
         <v>32</v>
@@ -1179,7 +1187,7 @@
       </c>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="25"/>
       <c r="B3" s="27" t="s">
         <v>34</v>
@@ -1190,7 +1198,7 @@
       <c r="F3" s="31"/>
       <c r="G3" s="30"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
       <c r="B4" s="32" t="s">
         <v>35</v>
@@ -1201,7 +1209,7 @@
       <c r="F4" s="33"/>
       <c r="G4" s="34"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="25"/>
       <c r="B5" s="12" t="s">
         <v>36</v>
@@ -1222,7 +1230,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -1231,7 +1239,7 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -1240,7 +1248,7 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -1249,7 +1257,7 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -1258,7 +1266,7 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -1267,7 +1275,7 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -1276,7 +1284,7 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
       <c r="B12" s="11"/>
       <c r="C12" s="15"/>
@@ -1285,7 +1293,7 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="21"/>
       <c r="C13" s="22"/>
@@ -1315,30 +1323,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA0482BA-3F93-442F-8AFE-D86C98EA24A7}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.1328125" customWidth="1"/>
-    <col min="4" max="4" width="14.53125" customWidth="1"/>
-    <col min="6" max="6" width="6.19921875" customWidth="1"/>
-    <col min="7" max="7" width="4.796875" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="6.21875" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="6.1328125" customWidth="1"/>
-    <col min="10" max="10" width="8.19921875" customWidth="1"/>
+    <col min="9" max="9" width="6.109375" customWidth="1"/>
+    <col min="10" max="10" width="8.21875" customWidth="1"/>
     <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="11.1328125" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="41"/>
       <c r="C1" s="18"/>
       <c r="D1" s="17" t="s">
         <v>54</v>
@@ -1356,97 +1364,97 @@
       <c r="M1" s="19"/>
       <c r="N1" s="8"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="36"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="37" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="39"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="36"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="37" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="39"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="36"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="37" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="39"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="36"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="40" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="39"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="42"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="44"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1490,7 +1498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -1508,7 +1516,7 @@
       <c r="M9" s="5"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
@@ -1524,7 +1532,7 @@
       <c r="M10" s="5"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
@@ -1540,7 +1548,7 @@
       <c r="M11" s="5"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
@@ -1556,7 +1564,7 @@
       <c r="M12" s="5"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
       <c r="B13" s="31"/>
       <c r="C13" s="31"/>
@@ -1572,29 +1580,31 @@
       <c r="M13" s="31"/>
       <c r="N13" s="30"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15" s="40" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="42"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="44"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>1</v>
       </c>
-      <c r="B16" s="20"/>
+      <c r="B16" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="C16" s="16"/>
       <c r="D16" s="2" t="s">
         <v>40</v>
@@ -1603,33 +1613,37 @@
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
       <c r="H16" s="30"/>
-      <c r="I16" s="43" t="s">
+      <c r="I16" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="J16" s="44"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="36"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="J16" s="36"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="39"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="36"/>
+      <c r="B17" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="A15:N15"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="K16:N16"/>
     <mergeCell ref="C17:N17"/>
@@ -1646,8 +1660,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:N5"/>
     <mergeCell ref="A7:N7"/>
-    <mergeCell ref="A13:N13"/>
-    <mergeCell ref="A15:N15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1658,30 +1670,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000F6B3B-AB4F-4868-B1E5-A6FB88E99700}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.86328125" customWidth="1"/>
-    <col min="4" max="4" width="8.59765625" customWidth="1"/>
-    <col min="5" max="5" width="11.1328125" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.46484375" customWidth="1"/>
-    <col min="8" max="8" width="7.06640625" customWidth="1"/>
-    <col min="9" max="9" width="10.46484375" customWidth="1"/>
-    <col min="10" max="10" width="4.796875" customWidth="1"/>
-    <col min="12" max="12" width="12.53125" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="10" max="10" width="4.77734375" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="15" width="15.73046875" customWidth="1"/>
+    <col min="14" max="15" width="15.77734375" customWidth="1"/>
     <col min="16" max="16" width="12.6640625" customWidth="1"/>
-    <col min="17" max="17" width="11.1328125" customWidth="1"/>
+    <col min="17" max="17" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
         <v>9</v>
       </c>
@@ -1703,7 +1715,7 @@
       <c r="Q1" s="8"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
         <v>3</v>
       </c>
@@ -1727,7 +1739,7 @@
       <c r="Q2" s="8"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
         <v>64</v>
       </c>
@@ -1749,11 +1761,11 @@
       <c r="Q3" s="8"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="46"/>
       <c r="D4" s="47"/>
       <c r="E4" s="47"/>
@@ -1771,7 +1783,7 @@
       <c r="Q4" s="8"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
         <v>50</v>
       </c>
@@ -1793,7 +1805,7 @@
       <c r="Q5" s="7"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="29"/>
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
@@ -1813,7 +1825,7 @@
       <c r="Q6" s="31"/>
       <c r="R6" s="30"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
         <v>0</v>
       </c>
@@ -1835,7 +1847,7 @@
       <c r="Q7" s="49"/>
       <c r="R7" s="49"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1891,7 +1903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -1913,7 +1925,7 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="5"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2</v>
       </c>
@@ -1935,7 +1947,7 @@
       <c r="Q10" s="6"/>
       <c r="R10" s="5"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>3</v>
       </c>
@@ -1957,7 +1969,7 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="5"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>4</v>
       </c>
@@ -1979,7 +1991,7 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="5"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
@@ -1999,7 +2011,7 @@
       <c r="Q13" s="6"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
@@ -2019,34 +2031,34 @@
       <c r="Q14" s="31"/>
       <c r="R14" s="30"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:P5"/>
-    <mergeCell ref="A6:R6"/>
-    <mergeCell ref="A7:R7"/>
-    <mergeCell ref="A14:R14"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:P4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="L1:P1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="L2:P2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:P4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:P5"/>
+    <mergeCell ref="A6:R6"/>
+    <mergeCell ref="A7:R7"/>
+    <mergeCell ref="A14:R14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-record/src/main/resources/_vfs/nop/record/imp/template.record-file.xlsx
+++ b/nop-record/src/main/resources/_vfs/nop/record/imp/template.record-file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-record\src\main\resources\_vfs\nop\record\imp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD074FFC-5E10-4E7F-B8C7-1878E396C9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8FF22F-D8BB-4A21-9AD4-8872F4148DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="23040" windowHeight="11976" activeTab="3" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="4" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
   <si>
     <t>字段列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -295,6 +295,10 @@
   </si>
   <si>
     <t>计算表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子类型匹配规则</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -604,6 +608,15 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -623,15 +636,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1323,7 +1327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA0482BA-3F93-442F-8AFE-D86C98EA24A7}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -1343,10 +1347,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="44"/>
       <c r="C1" s="18"/>
       <c r="D1" s="17" t="s">
         <v>54</v>
@@ -1365,94 +1369,94 @@
       <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="39"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="42"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="39"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="42"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="39"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="42"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="39"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="42"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="44"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="37"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1581,22 +1585,22 @@
       <c r="N13" s="30"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="44"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="37"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
@@ -1613,40 +1617,35 @@
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
       <c r="H16" s="30"/>
-      <c r="I16" s="35" t="s">
+      <c r="I16" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="J16" s="36"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="42"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="39"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A13:N13"/>
-    <mergeCell ref="A15:N15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="C17:N17"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="A16:A17"/>
@@ -1660,6 +1659,11 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:N5"/>
     <mergeCell ref="A7:N7"/>
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="A15:N15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="C17:N17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1668,10 +1672,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000F6B3B-AB4F-4868-B1E5-A6FB88E99700}">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1688,12 +1692,13 @@
     <col min="10" max="10" width="4.77734375" customWidth="1"/>
     <col min="12" max="12" width="12.5546875" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="15" width="15.77734375" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" customWidth="1"/>
-    <col min="17" max="17" width="11.109375" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" customWidth="1"/>
+    <col min="15" max="16" width="15.77734375" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" customWidth="1"/>
+    <col min="18" max="18" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
         <v>9</v>
       </c>
@@ -1711,11 +1716,12 @@
       <c r="M1" s="31"/>
       <c r="N1" s="31"/>
       <c r="O1" s="31"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="1"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P1" s="31"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
         <v>3</v>
       </c>
@@ -1735,11 +1741,12 @@
       <c r="M2" s="31"/>
       <c r="N2" s="31"/>
       <c r="O2" s="31"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="1"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
         <v>64</v>
       </c>
@@ -1757,15 +1764,16 @@
       <c r="M3" s="31"/>
       <c r="N3" s="31"/>
       <c r="O3" s="31"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="P3" s="31"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="41"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="46"/>
       <c r="D4" s="47"/>
       <c r="E4" s="47"/>
@@ -1779,11 +1787,12 @@
       <c r="M4" s="47"/>
       <c r="N4" s="47"/>
       <c r="O4" s="47"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P4" s="47"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
         <v>50</v>
       </c>
@@ -1801,11 +1810,12 @@
       <c r="M5" s="47"/>
       <c r="N5" s="47"/>
       <c r="O5" s="47"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="1"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P5" s="47"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="29"/>
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
@@ -1823,9 +1833,10 @@
       <c r="O6" s="31"/>
       <c r="P6" s="31"/>
       <c r="Q6" s="31"/>
-      <c r="R6" s="30"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R6" s="31"/>
+      <c r="S6" s="30"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
         <v>0</v>
       </c>
@@ -1846,8 +1857,9 @@
       <c r="P7" s="49"/>
       <c r="Q7" s="49"/>
       <c r="R7" s="49"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7" s="49"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1888,22 +1900,25 @@
         <v>61</v>
       </c>
       <c r="N8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="R8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="S8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -1923,9 +1938,10 @@
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
-      <c r="R9" s="5"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R9" s="6"/>
+      <c r="S9" s="5"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2</v>
       </c>
@@ -1945,9 +1961,10 @@
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
-      <c r="R10" s="5"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R10" s="6"/>
+      <c r="S10" s="5"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>3</v>
       </c>
@@ -1967,9 +1984,10 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
-      <c r="R11" s="5"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R11" s="6"/>
+      <c r="S11" s="5"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>4</v>
       </c>
@@ -1989,9 +2007,10 @@
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
-      <c r="R12" s="5"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R12" s="6"/>
+      <c r="S12" s="5"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
@@ -2009,9 +2028,10 @@
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
-      <c r="R13" s="5"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R13" s="6"/>
+      <c r="S13" s="5"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
@@ -2029,7 +2049,8 @@
       <c r="O14" s="31"/>
       <c r="P14" s="31"/>
       <c r="Q14" s="31"/>
-      <c r="R14" s="30"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="30"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
@@ -2043,22 +2064,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:Q5"/>
+    <mergeCell ref="A6:S6"/>
+    <mergeCell ref="A7:S7"/>
+    <mergeCell ref="A14:S14"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:J1"/>
-    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="L1:Q1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:J2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:P4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:P5"/>
-    <mergeCell ref="A6:R6"/>
-    <mergeCell ref="A7:R7"/>
-    <mergeCell ref="A14:R14"/>
+    <mergeCell ref="L2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
